--- a/Project675_S. P. Zack(2005).xlsx
+++ b/Project675_S. P. Zack(2005).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A353CD-2F73-D24C-B53D-71E84314600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094FE791-4596-1F40-A49C-A16C5668499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{AC114384-9621-224A-8E08-B6769207394F}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t>NO</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve"> [52] 'Navicular facet convexity'</t>
   </si>
   <si>
-    <t>Reformat</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [51] 'Astragalar cuboid facet'</t>
   </si>
   <si>
@@ -257,13 +254,22 @@
   </si>
   <si>
     <t>Charlabels</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=0-;2=12</t>
+  </si>
+  <si>
+    <t>NT?;0=0-;1=11;2=12</t>
+  </si>
+  <si>
+    <t>NN;0=11;1=0?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,19 +291,19 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -315,11 +321,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,84 +345,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25816</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133801</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="750496" cy="487570"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20225A0C-D0A1-F541-924F-97BE982C188A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8280816" y="4274001"/>
-          <a:ext cx="750496" cy="487570"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>21512</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>150519</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4955634" cy="692698"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A669557-A940-3F42-B25D-26D7376F6BDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8276512" y="10183519"/>
-          <a:ext cx="4955634" cy="692698"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -439,7 +367,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -465,22 +393,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171236</xdr:rowOff>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>499438</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>121435</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>776939</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>196102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB7D716-0059-05DD-A2CE-77E63AF600A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFB6ACE-ACC0-36B3-149F-18FE1B3966F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -489,15 +417,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8262135" y="5650787"/>
-          <a:ext cx="3810000" cy="749300"/>
+          <a:off x="8307294" y="1180353"/>
+          <a:ext cx="10593293" cy="6620808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,75 +781,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86CE691-83E4-024B-BF18-E63CEBE8AB58}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.83203125" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -932,62 +860,62 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -998,51 +926,51 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1053,21 +981,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -1075,52 +1003,51 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -1128,10 +1055,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -1139,10 +1066,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -1150,21 +1077,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -1172,63 +1099,62 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1236,29 +1162,29 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -1269,18 +1195,18 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -1291,10 +1217,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -1302,7 +1228,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -1313,21 +1239,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1335,18 +1261,18 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -1357,10 +1283,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -1368,10 +1294,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -1379,7 +1305,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1390,18 +1316,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1412,23 +1338,22 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="B52" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">

--- a/Project675_S. P. Zack(2005).xlsx
+++ b/Project675_S. P. Zack(2005).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094FE791-4596-1F40-A49C-A16C5668499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1353AF2-E3E0-CE4D-85CD-2892CAAF920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{AC114384-9621-224A-8E08-B6769207394F}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>NO</t>
   </si>
@@ -263,13 +263,16 @@
   </si>
   <si>
     <t>NN;0=11;1=0?</t>
+  </si>
+  <si>
+    <t>NN;0=00;1=11;2=10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,12 +293,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,14 +315,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,63 +340,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1621691</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19539</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10683045" cy="746369"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68ACC4E-3BFB-6046-92E9-55E51CF248CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8212991" y="298939"/>
-          <a:ext cx="10683045" cy="746369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>776939</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>196102</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>791884</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>194235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -417,15 +367,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8307294" y="1180353"/>
-          <a:ext cx="10593293" cy="6620808"/>
+          <a:off x="10503647" y="313764"/>
+          <a:ext cx="10638119" cy="6648824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86CE691-83E4-024B-BF18-E63CEBE8AB58}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +743,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -830,10 +780,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1023,11 +970,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1080,10 +1027,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1108,11 +1052,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1233,8 +1177,8 @@
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
+      <c r="C41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1264,10 +1208,7 @@
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1275,11 +1216,9 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1310,8 +1249,8 @@
       <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
+      <c r="C48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,11 +1286,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1362,8 +1301,8 @@
       <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
+      <c r="C53" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
